--- a/output/StructureDefinition-t-cabs-observation-atemfrequenz-beatmet.xlsx
+++ b/output/StructureDefinition-t-cabs-observation-atemfrequenz-beatmet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T11:55:29+01:00</t>
+    <t>2025-11-20T17:13:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
